--- a/Learning Path.xlsx
+++ b/Learning Path.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learnings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7098ECF-E2CC-40EF-B89C-E8CDD084E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249BC3F-5AF2-4BCE-8537-06EC7E387C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Course Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Started Learning On</t>
   </si>
   <si>
-    <t>Resources</t>
-  </si>
-  <si>
     <t>DeepMind AI Reduces Google Data Centre Cooling Bill by 40%</t>
   </si>
   <si>
@@ -94,12 +91,6 @@
     <t>ChatGPT for Data Science &amp; Machine Learning: 5 Use Cases</t>
   </si>
   <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t>Part 0 - Fundamentals of Reinforcement Learning</t>
-  </si>
-  <si>
     <t>Arthur Juliani, 2016, Simple Reinforcement Learning with Tensorflow (10 Parts)</t>
   </si>
   <si>
@@ -175,14 +166,71 @@
     <t>Policy vs Plan</t>
   </si>
   <si>
-    <t>Living Penalty</t>
+    <t>Adding a "Living Penalty"</t>
+  </si>
+  <si>
+    <t>Q-Learning Intuition</t>
+  </si>
+  <si>
+    <t>Temporal Difference</t>
+  </si>
+  <si>
+    <t>Section 4: A Q-Learning Implementation</t>
+  </si>
+  <si>
+    <t>A Q-Learning Implementation for Process Optimization</t>
+  </si>
+  <si>
+    <t>Welcome to Part 1 - Deep Q-Learning</t>
+  </si>
+  <si>
+    <t>Section 5: Part 1 - Deep Q-Learning</t>
+  </si>
+  <si>
+    <t>Arthur Juliani, 2016, Simple Reinforcement Learning with Tensorflow (Part 4)</t>
+  </si>
+  <si>
+    <t>Tom Schaul et al., Google DeepMind, 2016, Prioritized Experience Replay</t>
+  </si>
+  <si>
+    <t>Michel Tokic, 2010, Adaptive ε-greedy Exploration in Reinforcement Learning Based on Value Differences</t>
+  </si>
+  <si>
+    <t>Section 6: Deep Q-Learning Intuition</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Intuition - Learning</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Intuition - Acting</t>
+  </si>
+  <si>
+    <t>Experience Replay</t>
+  </si>
+  <si>
+    <t>Resource Link1</t>
+  </si>
+  <si>
+    <t>Resource Link2</t>
+  </si>
+  <si>
+    <t>Action Selection Policies</t>
+  </si>
+  <si>
+    <t>Section 6: Deep Q-Learning Implementation</t>
+  </si>
+  <si>
+    <t>Get the Codes Here</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,12 +254,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -242,14 +284,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +598,8 @@
   <dimension ref="B2:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <pane ySplit="9" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +609,8 @@
     <col min="3" max="3" width="74.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="3"/>
     <col min="5" max="5" width="12.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
@@ -585,9 +628,6 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -597,9 +637,6 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -608,14 +645,6 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -624,302 +653,438 @@
       <c r="C7" s="2">
         <v>45463</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E10" s="8">
-        <v>45463</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="7">
+        <v>45463</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="E11" s="8">
-        <v>45463</v>
+      <c r="E11" s="7">
+        <v>45463</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="E12" s="8">
-        <v>45463</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E12" s="7">
+        <v>45463</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="E13" s="8">
-        <v>45463</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E13" s="7">
+        <v>45463</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45463</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45463</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="6">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45463</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45463</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45463</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45463</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45463</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45463</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45463</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45465</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45465</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="E14" s="8">
-        <v>45463</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="E25" s="7">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="E15" s="8">
-        <v>45463</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E26" s="7">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="E16" s="8">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="E17" s="8">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="E18" s="8">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="D27" s="5">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E19" s="8">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="E27" s="7">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45465</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E20" s="8">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="6">
-        <v>9.0277777777777769E-3</v>
-      </c>
-      <c r="E21" s="8">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E22" s="8">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="E30" s="7">
+        <v>45465</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45465</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45465</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{5FB3FBCC-D2D9-45DD-B992-2E8F1514CAB0}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{10404F75-9416-4A5A-B697-A416C5EB9538}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{3783A5D3-3F28-44C6-8A36-8357A5D35A60}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{101864A4-375B-49A5-A762-C9BE79DCDE10}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{832FF1F6-AC8B-4F9A-8AF5-16A31C163DF7}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{6D0176B3-43A1-41E1-9F8E-22EF747B2FEE}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{004F66FC-CC6B-4113-BB5B-E6A5AC26CB39}"/>
-    <hyperlink ref="G12" r:id="rId8" xr:uid="{D8173D0F-0206-4BB5-97CE-37CF6D0D7459}"/>
-    <hyperlink ref="G13" r:id="rId9" xr:uid="{FA5824F5-3E66-4C33-8EB2-F237F0077117}"/>
-    <hyperlink ref="G14" r:id="rId10" xr:uid="{A2B31AEB-E6AD-462D-8783-6C31C61D037D}"/>
-    <hyperlink ref="G15" r:id="rId11" xr:uid="{90816687-4323-4B65-908F-DF53E6643C11}"/>
-    <hyperlink ref="C10" r:id="rId12" location="overview" xr:uid="{0D7117B8-FE5E-4B02-8EF8-5F1CA055D407}"/>
-    <hyperlink ref="C11" r:id="rId13" location="overview" xr:uid="{92EC8046-95B2-4DEA-996C-F837FB2482C1}"/>
-    <hyperlink ref="C12" r:id="rId14" location="overview" xr:uid="{806BA067-6937-47DA-A196-F31B6A6A827A}"/>
-    <hyperlink ref="C13" r:id="rId15" location="overview" xr:uid="{C5B2AC5B-905E-42F1-B657-6DD4DA2A3023}"/>
-    <hyperlink ref="C14" r:id="rId16" location="overview" xr:uid="{F001E669-4DF7-4295-A9FB-6C23A6D08A3E}"/>
-    <hyperlink ref="C15" r:id="rId17" location="overview" xr:uid="{EC9BCCDD-DEE2-49AC-8B2B-25505D08D200}"/>
-    <hyperlink ref="C16" r:id="rId18" location="overview" xr:uid="{CB62D6BA-AC97-414C-96BF-031641F4DD5F}"/>
-    <hyperlink ref="C17" r:id="rId19" location="overview" xr:uid="{B5B6BD6B-FF18-4C79-AB28-21DF7261A148}"/>
-    <hyperlink ref="C18" r:id="rId20" location="overview" xr:uid="{402D655C-912C-44CE-9A24-4D9C906C1D3A}"/>
-    <hyperlink ref="C19" r:id="rId21" location="overview" xr:uid="{06436CE4-530B-4130-B3D9-FDA61D5D12B9}"/>
-    <hyperlink ref="C20" r:id="rId22" location="overview" xr:uid="{71726FF3-9852-4849-A1C5-4F69035D91F5}"/>
-    <hyperlink ref="C21" r:id="rId23" location="overview" xr:uid="{8F114581-5354-4123-A064-02F206075C76}"/>
-    <hyperlink ref="C22" r:id="rId24" location="overview" xr:uid="{17A0B5C6-33EC-410E-8B09-E6D384AED720}"/>
+    <hyperlink ref="G17" r:id="rId2" xr:uid="{004F66FC-CC6B-4113-BB5B-E6A5AC26CB39}"/>
+    <hyperlink ref="C10" r:id="rId3" location="overview" xr:uid="{0D7117B8-FE5E-4B02-8EF8-5F1CA055D407}"/>
+    <hyperlink ref="C11" r:id="rId4" location="overview" xr:uid="{92EC8046-95B2-4DEA-996C-F837FB2482C1}"/>
+    <hyperlink ref="C12" r:id="rId5" location="overview" xr:uid="{806BA067-6937-47DA-A196-F31B6A6A827A}"/>
+    <hyperlink ref="C13" r:id="rId6" location="overview" xr:uid="{C5B2AC5B-905E-42F1-B657-6DD4DA2A3023}"/>
+    <hyperlink ref="C14" r:id="rId7" location="overview" xr:uid="{F001E669-4DF7-4295-A9FB-6C23A6D08A3E}"/>
+    <hyperlink ref="C15" r:id="rId8" location="overview" xr:uid="{EC9BCCDD-DEE2-49AC-8B2B-25505D08D200}"/>
+    <hyperlink ref="C16" r:id="rId9" location="overview" xr:uid="{CB62D6BA-AC97-414C-96BF-031641F4DD5F}"/>
+    <hyperlink ref="C17" r:id="rId10" location="overview" xr:uid="{B5B6BD6B-FF18-4C79-AB28-21DF7261A148}"/>
+    <hyperlink ref="C18" r:id="rId11" location="overview" xr:uid="{402D655C-912C-44CE-9A24-4D9C906C1D3A}"/>
+    <hyperlink ref="C19" r:id="rId12" location="overview" xr:uid="{06436CE4-530B-4130-B3D9-FDA61D5D12B9}"/>
+    <hyperlink ref="C20" r:id="rId13" location="overview" xr:uid="{71726FF3-9852-4849-A1C5-4F69035D91F5}"/>
+    <hyperlink ref="C21" r:id="rId14" location="overview" xr:uid="{8F114581-5354-4123-A064-02F206075C76}"/>
+    <hyperlink ref="C22" r:id="rId15" location="overview" display="Living Penalty" xr:uid="{17A0B5C6-33EC-410E-8B09-E6D384AED720}"/>
+    <hyperlink ref="C23" r:id="rId16" location="overview" xr:uid="{20ADE69B-AE82-4D52-AFCF-9F3B02B33473}"/>
+    <hyperlink ref="C24" r:id="rId17" location="overview" xr:uid="{E462915D-CEDF-4179-ACCC-980E7A9DD04F}"/>
+    <hyperlink ref="C25" r:id="rId18" location="overview" xr:uid="{56358A86-CDCA-4DEF-B1C0-EDF69B96ACE9}"/>
+    <hyperlink ref="C26" r:id="rId19" location="overview" xr:uid="{F6411FDA-8DD0-4C3B-B57B-76423C68BE71}"/>
+    <hyperlink ref="F31" r:id="rId20" xr:uid="{7BA81172-7223-4979-B7BF-A4F8C2A2C333}"/>
+    <hyperlink ref="C27" r:id="rId21" location="overview" xr:uid="{CEDEC5E4-5D77-4331-BF23-A4D98A67DF2E}"/>
+    <hyperlink ref="C28" r:id="rId22" location="overview" xr:uid="{FB0A86FC-A48F-47C9-A492-F0C5EAD549ED}"/>
+    <hyperlink ref="C29" r:id="rId23" location="overview" xr:uid="{E6C7F91E-1829-401A-952A-4468871FB8A1}"/>
+    <hyperlink ref="C30" r:id="rId24" location="overview" display="Experience Delay" xr:uid="{FA57324B-B11F-4DD4-9A5D-35D1E1D2BEB3}"/>
+    <hyperlink ref="F30" r:id="rId25" xr:uid="{D5675112-7FAD-46EE-83B9-66F18F0FEE17}"/>
+    <hyperlink ref="F29" r:id="rId26" xr:uid="{95C66A44-FAD3-4362-9CA5-C681F5D20EAF}"/>
+    <hyperlink ref="F24" r:id="rId27" xr:uid="{61023C52-011F-4E16-85BA-58CCC3EA85F8}"/>
+    <hyperlink ref="F23" r:id="rId28" xr:uid="{7EF3A2B9-E1CF-461D-A782-C30544BF0923}"/>
+    <hyperlink ref="F20" r:id="rId29" xr:uid="{B468A673-EFEC-46BC-A69C-96CF4D2D712A}"/>
+    <hyperlink ref="F18" r:id="rId30" xr:uid="{FB317C12-05A6-4063-A089-5419D4155AB9}"/>
+    <hyperlink ref="F17" r:id="rId31" xr:uid="{02798BC4-BD89-4722-A553-0D5C45CB5CF7}"/>
+    <hyperlink ref="F14" r:id="rId32" xr:uid="{40C0503C-5441-4038-A451-92486C2AF138}"/>
+    <hyperlink ref="F12" r:id="rId33" xr:uid="{216E1449-83F2-4387-A647-5A02EEF07B88}"/>
+    <hyperlink ref="F11" r:id="rId34" xr:uid="{DB9ED449-F6AA-4629-B203-3A20FD4624A1}"/>
+    <hyperlink ref="G11" r:id="rId35" xr:uid="{F55C6C1C-5FC4-4610-B5DF-585AF636320E}"/>
+    <hyperlink ref="C31" r:id="rId36" location="overview" xr:uid="{054AA420-1148-4866-82D5-1D6B099AB693}"/>
+    <hyperlink ref="C32" r:id="rId37" location="overview" xr:uid="{AF243412-CC8F-4E83-8975-9C23CA5606CA}"/>
+    <hyperlink ref="F32" r:id="rId38" xr:uid="{7D0D3E7F-275E-4C02-8654-D8A51ACE0D7B}"/>
+    <hyperlink ref="C33" r:id="rId39" location="overview" xr:uid="{5E84AA01-78E6-45F0-9C3F-B867C30AA88C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId25"/>
+  <legacyDrawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/Learning Path.xlsx
+++ b/Learning Path.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learnings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Learnings\MyLearnings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249BC3F-5AF2-4BCE-8537-06EC7E387C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFF414-80D8-47AB-B0A0-B8570788325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artificial Intelligence" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Course Name</t>
   </si>
@@ -224,6 +224,30 @@
   </si>
   <si>
     <t>Deep Q-Learning Implementation - Step 1</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 2</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 3</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 4</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 5</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 6</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 7</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 8</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 9</t>
   </si>
 </sst>
 </file>
@@ -595,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H40"/>
+  <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,7 +638,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -622,7 +646,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -631,7 +655,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -639,7 +663,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -647,7 +671,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
@@ -1015,32 +1039,92 @@
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45465</v>
+      </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45465</v>
+      </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45465</v>
+      </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45465</v>
+      </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45465</v>
+      </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45465</v>
+      </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45465</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1083,8 +1167,17 @@
     <hyperlink ref="C32" r:id="rId37" location="overview" xr:uid="{AF243412-CC8F-4E83-8975-9C23CA5606CA}"/>
     <hyperlink ref="F32" r:id="rId38" xr:uid="{7D0D3E7F-275E-4C02-8654-D8A51ACE0D7B}"/>
     <hyperlink ref="C33" r:id="rId39" location="overview" xr:uid="{5E84AA01-78E6-45F0-9C3F-B867C30AA88C}"/>
+    <hyperlink ref="C34" r:id="rId40" location="overview" xr:uid="{AB7A6C5F-BE79-4224-AE3E-B5AA4C8EF700}"/>
+    <hyperlink ref="C35" r:id="rId41" location="overview" xr:uid="{D6E12250-84F8-49DB-B5AE-5B6EA45F99A9}"/>
+    <hyperlink ref="C36" r:id="rId42" location="overview" xr:uid="{1D56FD89-C896-4F01-9477-8B8D8E86F16B}"/>
+    <hyperlink ref="C37" r:id="rId43" location="overview" xr:uid="{F7857DD0-0BD5-4D64-8D1D-5DCFC3BB84F3}"/>
+    <hyperlink ref="C38" r:id="rId44" location="overview" xr:uid="{F316692B-6B07-4FD3-A39C-E4A9D9CE78E1}"/>
+    <hyperlink ref="C39" r:id="rId45" location="overview" xr:uid="{CD090612-CB47-4D18-90F9-57AF34895F78}"/>
+    <hyperlink ref="C40" r:id="rId46" location="overview" xr:uid="{98AA60D5-468B-4AC6-8AAA-B0C70C3E9998}"/>
+    <hyperlink ref="C41" r:id="rId47" location="overview" xr:uid="{A31464A6-B15D-4273-9748-074CAA615BF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
+  <legacyDrawing r:id="rId49"/>
 </worksheet>
 </file>
--- a/Learning Path.xlsx
+++ b/Learning Path.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Learnings\MyLearnings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFF414-80D8-47AB-B0A0-B8570788325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9B549C-4E92-4918-8C72-D116AF8C9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artificial Intelligence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Course Name</t>
   </si>
@@ -217,9 +228,6 @@
     <t>Action Selection Policies</t>
   </si>
   <si>
-    <t>Section 6: Deep Q-Learning Implementation</t>
-  </si>
-  <si>
     <t>Get the Codes Here</t>
   </si>
   <si>
@@ -248,12 +256,63 @@
   </si>
   <si>
     <t>Deep Q-Learning Implementation - Step 9</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 10</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 11</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 12</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 13</t>
+  </si>
+  <si>
+    <t>Section 7: Deep Q-Learning Implementation</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 14</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 15</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 16</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 17</t>
+  </si>
+  <si>
+    <t>https://gymnasium.farama.org/environments/box2d/lunar_lander/</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 18</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 19</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning Implementation - Step 20</t>
+  </si>
+  <si>
+    <t>Total Duration</t>
+  </si>
+  <si>
+    <t>Section 8: Part 2 - Deep Convolutional Q-Learning</t>
+  </si>
+  <si>
+    <t>Welcome to Part 2 - Deep Convolutional Q-Learning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="h:mm\ &quot;Hrs&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,6 +376,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -619,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H41"/>
+  <dimension ref="B2:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +730,15 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8">
+        <f>"15:50:00"*(60/60)</f>
+        <v>0.65972222222222221</v>
+      </c>
+    </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -1012,10 +1081,10 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D32" s="5">
         <v>6.9444444444444447E-4</v>
@@ -1027,9 +1096,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="5">
         <v>4.8611111111111112E-3</v>
@@ -1037,10 +1106,13 @@
       <c r="E33" s="7">
         <v>45465</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="5">
         <v>4.1666666666666666E-3</v>
@@ -1049,9 +1121,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="5">
         <v>5.5555555555555558E-3</v>
@@ -1060,9 +1132,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="5">
         <v>2.7777777777777779E-3</v>
@@ -1071,9 +1143,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="5">
         <v>4.1666666666666666E-3</v>
@@ -1082,9 +1154,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="5">
         <v>2.7777777777777779E-3</v>
@@ -1093,9 +1165,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="5">
         <v>2.0833333333333333E-3</v>
@@ -1104,9 +1176,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="5">
         <v>2.0833333333333333E-3</v>
@@ -1115,9 +1187,9 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="5">
         <v>5.5555555555555558E-3</v>
@@ -1125,6 +1197,261 @@
       <c r="E41" s="7">
         <v>45465</v>
       </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="5">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="5">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1175,9 +1502,22 @@
     <hyperlink ref="C39" r:id="rId45" location="overview" xr:uid="{CD090612-CB47-4D18-90F9-57AF34895F78}"/>
     <hyperlink ref="C40" r:id="rId46" location="overview" xr:uid="{98AA60D5-468B-4AC6-8AAA-B0C70C3E9998}"/>
     <hyperlink ref="C41" r:id="rId47" location="overview" xr:uid="{A31464A6-B15D-4273-9748-074CAA615BF7}"/>
+    <hyperlink ref="C42" r:id="rId48" location="overview" display="Deep Q-Learning Implementation - Step 9" xr:uid="{FF66D3C4-6621-419A-B266-59BCAC854510}"/>
+    <hyperlink ref="C43" r:id="rId49" location="overview" xr:uid="{F19034EF-664E-4A75-939B-81508D6FE091}"/>
+    <hyperlink ref="C44" r:id="rId50" location="overview" display="Deep Q-Learning Implementation - Step 11" xr:uid="{654D6044-A6FE-4233-B814-28951486CABB}"/>
+    <hyperlink ref="C45" r:id="rId51" location="overview" display="Deep Q-Learning Implementation - Step 12" xr:uid="{35396DC7-1F7F-48D2-AEFB-B0E24A4F7BB7}"/>
+    <hyperlink ref="C46" r:id="rId52" location="overview" xr:uid="{B9740AB4-693F-4AAD-8B9F-69A8599B8777}"/>
+    <hyperlink ref="C47" r:id="rId53" location="overview" xr:uid="{53D58B74-E7F8-45F0-8DD9-E7F367863A75}"/>
+    <hyperlink ref="C48" r:id="rId54" location="overview" xr:uid="{EA2F38AD-A0F7-4D69-BD50-831367D43AAC}"/>
+    <hyperlink ref="C49" r:id="rId55" location="overview" xr:uid="{341DDCCC-9C13-4B14-87CB-CE6983B19D31}"/>
+    <hyperlink ref="F33" r:id="rId56" xr:uid="{BB716CFB-861E-40B4-976C-824CCADCFFD2}"/>
+    <hyperlink ref="C50" r:id="rId57" location="overview" xr:uid="{B0D65E21-8C03-4EFF-8D75-60FE4F9CA0E5}"/>
+    <hyperlink ref="C51" r:id="rId58" location="overview" xr:uid="{C42A596F-5887-4C15-8282-36DF5BCE842B}"/>
+    <hyperlink ref="C52" r:id="rId59" location="overview" display="Deep Q-Learning Implementation - Step 19" xr:uid="{7BE82259-1DAA-4A27-963E-66A8C9EB8B12}"/>
+    <hyperlink ref="C53" r:id="rId60" location="overview" xr:uid="{D280FBED-BED6-4418-BECF-81C813404524}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
-  <legacyDrawing r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
+  <legacyDrawing r:id="rId62"/>
 </worksheet>
 </file>
--- a/Learning Path.xlsx
+++ b/Learning Path.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Learnings\MyLearnings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learnings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9B549C-4E92-4918-8C72-D116AF8C9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0644F2-BF18-4CD8-977A-5C4090051DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Artificial Intelligence" sheetId="1" r:id="rId1"/>
+    <sheet name="Artificial Intelligence A-Z" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>tc={7B3518D7-F169-4AF1-8B55-7D8EEB861B36}</author>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{7B3518D7-F169-4AF1-8B55-7D8EEB861B36}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{7B3518D7-F169-4AF1-8B55-7D8EEB861B36}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="188">
   <si>
     <t>Course Name</t>
   </si>
@@ -153,15 +153,9 @@
     <t>EXTRA: Use ChatGPT to Build AI More Efficiently</t>
   </si>
   <si>
-    <t>Section 2: Part 0 - Fundamentals of Reinforcement Learning</t>
-  </si>
-  <si>
     <t>Welcome to Part 0 - Fundamentals of Reinforcement Learning</t>
   </si>
   <si>
-    <t>Section 3: Q-Learning Intuition</t>
-  </si>
-  <si>
     <t>Topics</t>
   </si>
   <si>
@@ -186,18 +180,12 @@
     <t>Temporal Difference</t>
   </si>
   <si>
-    <t>Section 4: A Q-Learning Implementation</t>
-  </si>
-  <si>
     <t>A Q-Learning Implementation for Process Optimization</t>
   </si>
   <si>
     <t>Welcome to Part 1 - Deep Q-Learning</t>
   </si>
   <si>
-    <t>Section 5: Part 1 - Deep Q-Learning</t>
-  </si>
-  <si>
     <t>Arthur Juliani, 2016, Simple Reinforcement Learning with Tensorflow (Part 4)</t>
   </si>
   <si>
@@ -207,9 +195,6 @@
     <t>Michel Tokic, 2010, Adaptive ε-greedy Exploration in Reinforcement Learning Based on Value Differences</t>
   </si>
   <si>
-    <t>Section 6: Deep Q-Learning Intuition</t>
-  </si>
-  <si>
     <t>Deep Q-Learning Intuition - Learning</t>
   </si>
   <si>
@@ -270,9 +255,6 @@
     <t>Deep Q-Learning Implementation - Step 13</t>
   </si>
   <si>
-    <t>Section 7: Deep Q-Learning Implementation</t>
-  </si>
-  <si>
     <t>Deep Q-Learning Implementation - Step 14</t>
   </si>
   <si>
@@ -300,10 +282,349 @@
     <t>Total Duration</t>
   </si>
   <si>
-    <t>Section 8: Part 2 - Deep Convolutional Q-Learning</t>
-  </si>
-  <si>
     <t>Welcome to Part 2 - Deep Convolutional Q-Learning</t>
+  </si>
+  <si>
+    <t>Section 2: Agentic AI</t>
+  </si>
+  <si>
+    <t>Build a Cloud-powered AI Agent for Business Assistance, completely from scratch!</t>
+  </si>
+  <si>
+    <t>Section 3: Part 0 - Fundamentals of Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Section 4: Q-Learning Intuition</t>
+  </si>
+  <si>
+    <t>Section 5: A Q-Learning Implementation</t>
+  </si>
+  <si>
+    <t>Section 6: Part 1 - Deep Q-Learning</t>
+  </si>
+  <si>
+    <t>Section 7: Deep Q-Learning Intuition</t>
+  </si>
+  <si>
+    <t>Section 8: Deep Q-Learning Implementation</t>
+  </si>
+  <si>
+    <t>Section 9: Part 2 - Deep Convolutional Q-Learning</t>
+  </si>
+  <si>
+    <t>Section 10: Deep Convolutional Q-Learning Intuition</t>
+  </si>
+  <si>
+    <t>Deep Learning Fundamentals: Neural Networks &amp; Activation Functions Explained</t>
+  </si>
+  <si>
+    <t>Deep Convolutional Q-Learning: Build AI Agents for Game Environments</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning vs Eligibility Trace: AI Algorithm Comparison &amp; Guide</t>
+  </si>
+  <si>
+    <t>Section 11: Deep Convolutional Q-Learning Implementation</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning: Build AI Pac-Man with Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>Deep Q-Learning: Setting Up Pac-Man in OpenAI Gym - Step 1</t>
+  </si>
+  <si>
+    <t>Step 2 - Implementing DCQN Architecture in Python: Setup &amp; Neural Network Design</t>
+  </si>
+  <si>
+    <t>Step 3: Building CNNs - Creating AI's Visual Processing System</t>
+  </si>
+  <si>
+    <t>CNN Architecture: Adding Fully Connected Layers After Convolutional Layers</t>
+  </si>
+  <si>
+    <t>Step 5: Deep Q-Learning - Building AI's Visual Processing System</t>
+  </si>
+  <si>
+    <t>Step 6: Configuring Miss Pacman for Deep Q-Learning Training</t>
+  </si>
+  <si>
+    <t>Step 7: Deep Q-Learning Hyperparameters - Learning Rate &amp; Batch Size Setup</t>
+  </si>
+  <si>
+    <t>Image Preprocessing for Deep Q-Learning: PIL &amp; Torchvision Implementation</t>
+  </si>
+  <si>
+    <t>Step 9: Deep Q-Learning to DCQN - Experience Replay &amp; Memory Updates</t>
+  </si>
+  <si>
+    <t>Step 10: Implementing DCQN Agent - Deep Q-Learning Adaptation &amp; Methods</t>
+  </si>
+  <si>
+    <t>Step 11: Optimizing DQN Training on V100 GPU - Setup to Solved Environment</t>
+  </si>
+  <si>
+    <t>Step 12: Visualizing Deep Q-Learning - Watch AI Play Pac-Man Like a Human</t>
+  </si>
+  <si>
+    <t>Step 13: Deep Q-Learning - Optimizing Neural Networks with GPT-4</t>
+  </si>
+  <si>
+    <t>Section 12: Part 3 A3C</t>
+  </si>
+  <si>
+    <t>Welcome to Part 3 - A3C</t>
+  </si>
+  <si>
+    <t>Section 13: A3C Intuition</t>
+  </si>
+  <si>
+    <t>A3C Algorithm Tutorial: Understanding Asynchronous Advantage Actor-Critic in AI</t>
+  </si>
+  <si>
+    <t>Actor-Critic Algorithm: From Deep Q-Learning to A3C Implementation</t>
+  </si>
+  <si>
+    <t>Asynchronous Learning in A3C: Shared Critics and Neural Networks Explained</t>
+  </si>
+  <si>
+    <t>How Does Advantage Work in Actor-Critic Methods? A3C Algorithm Explained</t>
+  </si>
+  <si>
+    <t>LSTM in A3C Algorithm: How Memory Enhances Reinforcement Learning Performance</t>
+  </si>
+  <si>
+    <t>Section 14: A3C Implementation</t>
+  </si>
+  <si>
+    <t>A3C Reinforcement Learning Tutorial: Building AI for Kung Fu Master Environment</t>
+  </si>
+  <si>
+    <t>Get the Codes here</t>
+  </si>
+  <si>
+    <t>A3C Deep RL: Setting Up Kung Fu Master Environment in Atari</t>
+  </si>
+  <si>
+    <t>A3C Algorithm Implementation: Neural Network &amp; Environment Setup</t>
+  </si>
+  <si>
+    <t>Step 3 - A3C Deep Reinforcement Learning: Network Class &amp; Architecture Design</t>
+  </si>
+  <si>
+    <t>A3C Algorithm: Building Action &amp; State Value Outputs - Step 4</t>
+  </si>
+  <si>
+    <t>A3C Algorithm: PreprocessAtari Class &amp; Hyperparameter Tuning Setup</t>
+  </si>
+  <si>
+    <t>Step 6: A3C Agent Class Init Method for Deep Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>A3C Agent: Converting States to Actions with PyTorch Neural Networks</t>
+  </si>
+  <si>
+    <t>Step 8: Coding A3C Step Method in PyTorch - Complete Implementation Guide</t>
+  </si>
+  <si>
+    <t>Step 9 - How to Initialize an A3C Agent in Python: Creating the Agent Instance</t>
+  </si>
+  <si>
+    <t>Implementing A3C Agent Evaluation in Python | Deep RL Tutorial Step 10</t>
+  </si>
+  <si>
+    <t>Step 11: EnvBatch Class for A3C Multi-Environment Training in Python</t>
+  </si>
+  <si>
+    <t>Step 12: Multi-Environment A3C - EnvBatch Class Implementation Tutorial</t>
+  </si>
+  <si>
+    <t>Step 13: A3C Training - Multi-Environment Batch Setup Implementation</t>
+  </si>
+  <si>
+    <t>Step 14: A3C Training Loop with Progress Bar for Kung Fu AI Model</t>
+  </si>
+  <si>
+    <t>ChatGPT A3C Model: PyTorch for KungFuMaster AI Optimization (Step 15)</t>
+  </si>
+  <si>
+    <t>Section 15: Part 4 - PPO and SAC</t>
+  </si>
+  <si>
+    <t>AWS DeepRacer: Training Autonomous Vehicles with PPO and SAC Algorithms</t>
+  </si>
+  <si>
+    <t>Build and Train the PPO and SAC models for a Self-Driving Car! Theory included.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/40j-t9W_Hvw</t>
+  </si>
+  <si>
+    <t>Section 16: Part 5 - Intro to Large Language Models (LLMs)</t>
+  </si>
+  <si>
+    <t>Welcome to Part 5 - Intro to Large Language Models (LLMs)</t>
+  </si>
+  <si>
+    <t>Introduction to Large Language Models (LLMs): Transformers Explained</t>
+  </si>
+  <si>
+    <t>Building Large Language Models: Essential Ingredients for LLM Development</t>
+  </si>
+  <si>
+    <t>How Were Large Language Models Invented? Origins of Transformer AI</t>
+  </si>
+  <si>
+    <t>Understanding Next Word Prediction: How LLMs Process Text One Word at a Time</t>
+  </si>
+  <si>
+    <t>How Do Large Language Models Work? A Deep Dive into LLM Architecture</t>
+  </si>
+  <si>
+    <t>What Are LLM Parameters? Understanding Large Language Model Size Explained</t>
+  </si>
+  <si>
+    <t>Context Windows Explained: How LLMs Remember Conversation History</t>
+  </si>
+  <si>
+    <t>Fine-Tuning Large Language Models: Real-World Applications and Use Cases</t>
+  </si>
+  <si>
+    <t>Section 17: LLMs Intuition</t>
+  </si>
+  <si>
+    <t>Section 18: LLMs Implementation</t>
+  </si>
+  <si>
+    <t>Fine-Tuning LLMs for Medical Chatbots: A Practical Guide with Hugging Face</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/gamino/wiki_medical_terms</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/aboonaji/wiki_medical_terms_llam2_format</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/aboonaji/llama2finetune-v2</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/transformers/model_doc/auto#transformers.AutoModelForCausalLM.from_pretrained</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/transformers/main_classes/quantization#transformers.BitsAndBytesConfig</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/transformers/model_doc/auto#transformers.AutoTokenizer.from_pretrained</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/transformers/main_classes/trainer#transformers.TrainingArguments</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/trl/sft_trainer#trl.SFTTrainer</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/peft/v0.7.1/en/package_reference/lora#peft.LoraConfig</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/docs/transformers/main/en/quicktour#pipeline</t>
+  </si>
+  <si>
+    <t>Installing &amp; Importing Key Libraries for Fine-Tuning Llama 2 Models</t>
+  </si>
+  <si>
+    <t>Loading LLaMA 2 Model: Hugging Face Transformers &amp; 4-bit Precision</t>
+  </si>
+  <si>
+    <t>Loading &amp; Configuring HuggingFace Tokenizer for LLaMA 2 Implementation</t>
+  </si>
+  <si>
+    <t>Step 4 - Setting Training Arguments for LLM Fine-Tuning in Transformers Library</t>
+  </si>
+  <si>
+    <t>Step 5 - Implementing SFTTrainer: Memory-Efficient LLM Training with PEFT &amp; LoRA</t>
+  </si>
+  <si>
+    <t>Step 6: LoRA &amp; Quantization for Efficient LLM Training in Medical Terms</t>
+  </si>
+  <si>
+    <t>Step 7: Chatting with Your Fine-Tuned Medical LLM via Text Generation</t>
+  </si>
+  <si>
+    <t>Build a RAG-powered Generative AI application with Knowledge Bases, from scratch</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jYQZefzAFuI</t>
+  </si>
+  <si>
+    <t>Section 19: Thank You</t>
+  </si>
+  <si>
+    <t>THANK YOU Video</t>
+  </si>
+  <si>
+    <t>Section 20: Annex 1: Artificial Neural Networks</t>
+  </si>
+  <si>
+    <t>What is Deep Learning? A Beginner's Guide to Artificial Neural Networks</t>
+  </si>
+  <si>
+    <t>How Do Artificial Neurons Work? A Complete Guide to Neural Network Basics</t>
+  </si>
+  <si>
+    <t>Neural Network Activation Functions: ReLU, Sigmoid, Tanh &amp; Threshold Explained</t>
+  </si>
+  <si>
+    <t>How Do Neural Networks Work? A Step-by-Step Property Valuation Example</t>
+  </si>
+  <si>
+    <t>How Do Neural Networks Learn? Understanding Backpropagation &amp; Cost Functions</t>
+  </si>
+  <si>
+    <t>Understanding Gradient Descent: Optimize Neural Network Weights Efficiently</t>
+  </si>
+  <si>
+    <t>Stochastic Gradient Descent vs Batch Gradient Descent: What's the Difference?</t>
+  </si>
+  <si>
+    <t>Backpropagation in Neural Networks: Step-by-Step Training Guide</t>
+  </si>
+  <si>
+    <t>Section 21: Annex 2: Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>CNN vs Human Vision: How Convolutional Neural Networks Process Images</t>
+  </si>
+  <si>
+    <t>CNN Convolution: Feature Detection &amp; Feature Maps in Deep Learning</t>
+  </si>
+  <si>
+    <t>ReLU in CNN: Understanding Non-Linearity for Deep Learning</t>
+  </si>
+  <si>
+    <t>Step 2 - Max Pooling in CNN: How to Reduce Feature Maps &amp; Prevent Overfitting</t>
+  </si>
+  <si>
+    <t>Step 3 - CNN Feature Map Flattening: From Pooling Layer to Neural Network Input</t>
+  </si>
+  <si>
+    <t>Step 4: CNN Classification - How FC Layers Process Features</t>
+  </si>
+  <si>
+    <t>CNN Architecture Explained: Feature Detection to Neural Network Classification</t>
+  </si>
+  <si>
+    <t>Understanding Softmax and Cross-Entropy Loss Functions in Neural Networks</t>
+  </si>
+  <si>
+    <t>Section 22: Congratulations!! Don't forget your prize :)</t>
+  </si>
+  <si>
+    <t>Find Your Career Path!</t>
+  </si>
+  <si>
+    <t>https://www.superdatascience.com/career-paths</t>
+  </si>
+  <si>
+    <t>Bonus: How To UNLOCK Top Salaries (Live Training)</t>
   </si>
 </sst>
 </file>
@@ -311,7 +632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm\ &quot;Hrs&quot;"/>
+    <numFmt numFmtId="164" formatCode="h:mm\ &quot;Hrs&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -376,7 +697,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -664,7 +985,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C18" dT="2024-06-20T18:21:17.29" personId="{BCCB497E-D74D-43ED-8588-262704896C0D}" id="{7B3518D7-F169-4AF1-8B55-7D8EEB861B36}">
+  <threadedComment ref="C19" dT="2024-06-20T18:21:17.29" personId="{BCCB497E-D74D-43ED-8588-262704896C0D}" id="{7B3518D7-F169-4AF1-8B55-7D8EEB861B36}">
     <text xml:space="preserve">Founder - Richard Ernest Bellman
 V(s)=maxa(R(s,a)+ γV(s’)) 
 Concepts:
@@ -679,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H93"/>
+  <dimension ref="B2:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,6 +1016,14 @@
     <col min="5" max="5" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="80.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="87.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="82.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="72.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
@@ -732,7 +1061,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C6" s="8">
         <f>"15:50:00"*(60/60)</f>
@@ -752,19 +1081,19 @@
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -843,167 +1172,169 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="E15" s="7">
-        <v>45463</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>45805</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5">
-        <v>2.7777777777777779E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="E16" s="7">
         <v>45463</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5">
-        <v>7.6388888888888886E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E17" s="7">
         <v>45463</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5">
-        <v>1.2500000000000001E-2</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="E18" s="7">
         <v>45463</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5">
-        <v>1.3888888888888889E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E19" s="7">
         <v>45463</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5">
-        <v>1.1111111111111112E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="E20" s="7">
         <v>45463</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="5">
-        <v>9.0277777777777769E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="E21" s="7">
         <v>45463</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" s="5">
-        <v>6.9444444444444441E-3</v>
+        <v>9.0277777777777769E-3</v>
       </c>
       <c r="E22" s="7">
         <v>45463</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D23" s="5">
-        <v>1.0416666666666666E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E23" s="7">
-        <v>45465</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>45463</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="5">
-        <v>1.3194444444444444E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E24" s="7">
         <v>45465</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5">
-        <v>6.9444444444444447E-4</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="E25" s="7">
         <v>45465</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5">
         <v>6.9444444444444447E-4</v>
@@ -1014,24 +1345,27 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5">
-        <v>1.3888888888888889E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="E27" s="7">
         <v>45465</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D28" s="5">
-        <v>1.0416666666666666E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="E28" s="7">
         <v>45465</v>
@@ -1039,35 +1373,32 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D29" s="5">
-        <v>4.1666666666666666E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E29" s="7">
         <v>45465</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="5">
-        <v>1.1111111111111112E-2</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="E30" s="7">
         <v>45465</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5">
         <v>1.1111111111111112E-2</v>
@@ -1076,109 +1407,112 @@
         <v>45465</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5">
-        <v>6.9444444444444447E-4</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="E32" s="7">
         <v>45465</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D33" s="5">
-        <v>4.8611111111111112E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="E33" s="7">
         <v>45465</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D34" s="5">
-        <v>4.1666666666666666E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="E34" s="7">
         <v>45465</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D35" s="5">
-        <v>5.5555555555555558E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="E35" s="7">
         <v>45465</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D36" s="5">
-        <v>2.7777777777777779E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="E36" s="7">
         <v>45465</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D37" s="5">
-        <v>4.1666666666666666E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E37" s="7">
         <v>45465</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D38" s="5">
-        <v>2.7777777777777779E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="E38" s="7">
         <v>45465</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D39" s="5">
-        <v>2.0833333333333333E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E39" s="7">
         <v>45465</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D40" s="5">
         <v>2.0833333333333333E-3</v>
@@ -1187,31 +1521,31 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D41" s="5">
-        <v>5.5555555555555558E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="E41" s="7">
         <v>45465</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D42" s="5">
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="E42" s="7">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D43" s="5">
         <v>5.5555555555555558E-3</v>
@@ -1220,20 +1554,20 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D44" s="5">
-        <v>6.2500000000000003E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="E44" s="7">
         <v>45475</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D45" s="5">
         <v>6.2500000000000003E-3</v>
@@ -1242,34 +1576,34 @@
         <v>45475</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D46" s="5">
-        <v>4.8611111111111112E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="E46" s="7">
         <v>45475</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D47" s="5">
-        <v>1.3888888888888889E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="E47" s="7">
         <v>45475</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D48" s="5">
-        <v>4.1666666666666666E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="E48" s="7">
         <v>45475</v>
@@ -1277,10 +1611,10 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D49" s="5">
-        <v>6.9444444444444441E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="E49" s="7">
         <v>45475</v>
@@ -1288,10 +1622,10 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D50" s="5">
-        <v>1.3888888888888888E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="E50" s="7">
         <v>45475</v>
@@ -1299,10 +1633,10 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D51" s="5">
-        <v>3.472222222222222E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E51" s="7">
         <v>45475</v>
@@ -1310,214 +1644,1205 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D52" s="5">
-        <v>4.1666666666666666E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="E52" s="7">
         <v>45475</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D53" s="5">
-        <v>6.9444444444444447E-4</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="E53" s="7">
         <v>45475</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="5"/>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45475</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D55" s="5"/>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="5">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D58" s="5"/>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="5"/>
+      <c r="C59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="5">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D63" s="5"/>
+      <c r="C63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45805</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D93" s="5"/>
+      <c r="C64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="5">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="5">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="5">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45805</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C103" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C104" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C106" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45805</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" s="5">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C112" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="5">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C115" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C116" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="5">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C117" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45805</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="5">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C120" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C122" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C123" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="5">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="5">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C125" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C126" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="5">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C127" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C129" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C130" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C131" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131" s="5">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="5">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C135" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D135" s="5">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>184</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D137" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45805</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C138" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D138" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45805</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{5FB3FBCC-D2D9-45DD-B992-2E8F1514CAB0}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{004F66FC-CC6B-4113-BB5B-E6A5AC26CB39}"/>
+    <hyperlink ref="G18" r:id="rId2" xr:uid="{004F66FC-CC6B-4113-BB5B-E6A5AC26CB39}"/>
     <hyperlink ref="C10" r:id="rId3" location="overview" xr:uid="{0D7117B8-FE5E-4B02-8EF8-5F1CA055D407}"/>
     <hyperlink ref="C11" r:id="rId4" location="overview" xr:uid="{92EC8046-95B2-4DEA-996C-F837FB2482C1}"/>
     <hyperlink ref="C12" r:id="rId5" location="overview" xr:uid="{806BA067-6937-47DA-A196-F31B6A6A827A}"/>
     <hyperlink ref="C13" r:id="rId6" location="overview" xr:uid="{C5B2AC5B-905E-42F1-B657-6DD4DA2A3023}"/>
     <hyperlink ref="C14" r:id="rId7" location="overview" xr:uid="{F001E669-4DF7-4295-A9FB-6C23A6D08A3E}"/>
-    <hyperlink ref="C15" r:id="rId8" location="overview" xr:uid="{EC9BCCDD-DEE2-49AC-8B2B-25505D08D200}"/>
-    <hyperlink ref="C16" r:id="rId9" location="overview" xr:uid="{CB62D6BA-AC97-414C-96BF-031641F4DD5F}"/>
-    <hyperlink ref="C17" r:id="rId10" location="overview" xr:uid="{B5B6BD6B-FF18-4C79-AB28-21DF7261A148}"/>
-    <hyperlink ref="C18" r:id="rId11" location="overview" xr:uid="{402D655C-912C-44CE-9A24-4D9C906C1D3A}"/>
-    <hyperlink ref="C19" r:id="rId12" location="overview" xr:uid="{06436CE4-530B-4130-B3D9-FDA61D5D12B9}"/>
-    <hyperlink ref="C20" r:id="rId13" location="overview" xr:uid="{71726FF3-9852-4849-A1C5-4F69035D91F5}"/>
-    <hyperlink ref="C21" r:id="rId14" location="overview" xr:uid="{8F114581-5354-4123-A064-02F206075C76}"/>
-    <hyperlink ref="C22" r:id="rId15" location="overview" display="Living Penalty" xr:uid="{17A0B5C6-33EC-410E-8B09-E6D384AED720}"/>
-    <hyperlink ref="C23" r:id="rId16" location="overview" xr:uid="{20ADE69B-AE82-4D52-AFCF-9F3B02B33473}"/>
-    <hyperlink ref="C24" r:id="rId17" location="overview" xr:uid="{E462915D-CEDF-4179-ACCC-980E7A9DD04F}"/>
-    <hyperlink ref="C25" r:id="rId18" location="overview" xr:uid="{56358A86-CDCA-4DEF-B1C0-EDF69B96ACE9}"/>
-    <hyperlink ref="C26" r:id="rId19" location="overview" xr:uid="{F6411FDA-8DD0-4C3B-B57B-76423C68BE71}"/>
-    <hyperlink ref="F31" r:id="rId20" xr:uid="{7BA81172-7223-4979-B7BF-A4F8C2A2C333}"/>
-    <hyperlink ref="C27" r:id="rId21" location="overview" xr:uid="{CEDEC5E4-5D77-4331-BF23-A4D98A67DF2E}"/>
-    <hyperlink ref="C28" r:id="rId22" location="overview" xr:uid="{FB0A86FC-A48F-47C9-A492-F0C5EAD549ED}"/>
-    <hyperlink ref="C29" r:id="rId23" location="overview" xr:uid="{E6C7F91E-1829-401A-952A-4468871FB8A1}"/>
-    <hyperlink ref="C30" r:id="rId24" location="overview" display="Experience Delay" xr:uid="{FA57324B-B11F-4DD4-9A5D-35D1E1D2BEB3}"/>
-    <hyperlink ref="F30" r:id="rId25" xr:uid="{D5675112-7FAD-46EE-83B9-66F18F0FEE17}"/>
-    <hyperlink ref="F29" r:id="rId26" xr:uid="{95C66A44-FAD3-4362-9CA5-C681F5D20EAF}"/>
-    <hyperlink ref="F24" r:id="rId27" xr:uid="{61023C52-011F-4E16-85BA-58CCC3EA85F8}"/>
-    <hyperlink ref="F23" r:id="rId28" xr:uid="{7EF3A2B9-E1CF-461D-A782-C30544BF0923}"/>
-    <hyperlink ref="F20" r:id="rId29" xr:uid="{B468A673-EFEC-46BC-A69C-96CF4D2D712A}"/>
-    <hyperlink ref="F18" r:id="rId30" xr:uid="{FB317C12-05A6-4063-A089-5419D4155AB9}"/>
-    <hyperlink ref="F17" r:id="rId31" xr:uid="{02798BC4-BD89-4722-A553-0D5C45CB5CF7}"/>
+    <hyperlink ref="C16" r:id="rId8" location="overview" xr:uid="{EC9BCCDD-DEE2-49AC-8B2B-25505D08D200}"/>
+    <hyperlink ref="C17" r:id="rId9" location="overview" xr:uid="{CB62D6BA-AC97-414C-96BF-031641F4DD5F}"/>
+    <hyperlink ref="C18" r:id="rId10" location="overview" xr:uid="{B5B6BD6B-FF18-4C79-AB28-21DF7261A148}"/>
+    <hyperlink ref="C19" r:id="rId11" location="overview" xr:uid="{402D655C-912C-44CE-9A24-4D9C906C1D3A}"/>
+    <hyperlink ref="C20" r:id="rId12" location="overview" xr:uid="{06436CE4-530B-4130-B3D9-FDA61D5D12B9}"/>
+    <hyperlink ref="C21" r:id="rId13" location="overview" xr:uid="{71726FF3-9852-4849-A1C5-4F69035D91F5}"/>
+    <hyperlink ref="C22" r:id="rId14" location="overview" xr:uid="{8F114581-5354-4123-A064-02F206075C76}"/>
+    <hyperlink ref="C23" r:id="rId15" location="overview" display="Living Penalty" xr:uid="{17A0B5C6-33EC-410E-8B09-E6D384AED720}"/>
+    <hyperlink ref="C24" r:id="rId16" location="overview" xr:uid="{20ADE69B-AE82-4D52-AFCF-9F3B02B33473}"/>
+    <hyperlink ref="C25" r:id="rId17" location="overview" xr:uid="{E462915D-CEDF-4179-ACCC-980E7A9DD04F}"/>
+    <hyperlink ref="C26" r:id="rId18" location="overview" xr:uid="{56358A86-CDCA-4DEF-B1C0-EDF69B96ACE9}"/>
+    <hyperlink ref="C27" r:id="rId19" location="overview" xr:uid="{F6411FDA-8DD0-4C3B-B57B-76423C68BE71}"/>
+    <hyperlink ref="F32" r:id="rId20" xr:uid="{7BA81172-7223-4979-B7BF-A4F8C2A2C333}"/>
+    <hyperlink ref="C28" r:id="rId21" location="overview" xr:uid="{CEDEC5E4-5D77-4331-BF23-A4D98A67DF2E}"/>
+    <hyperlink ref="C29" r:id="rId22" location="overview" xr:uid="{FB0A86FC-A48F-47C9-A492-F0C5EAD549ED}"/>
+    <hyperlink ref="C30" r:id="rId23" location="overview" xr:uid="{E6C7F91E-1829-401A-952A-4468871FB8A1}"/>
+    <hyperlink ref="C31" r:id="rId24" location="overview" display="Experience Delay" xr:uid="{FA57324B-B11F-4DD4-9A5D-35D1E1D2BEB3}"/>
+    <hyperlink ref="F31" r:id="rId25" xr:uid="{D5675112-7FAD-46EE-83B9-66F18F0FEE17}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{95C66A44-FAD3-4362-9CA5-C681F5D20EAF}"/>
+    <hyperlink ref="F25" r:id="rId27" xr:uid="{61023C52-011F-4E16-85BA-58CCC3EA85F8}"/>
+    <hyperlink ref="F24" r:id="rId28" xr:uid="{7EF3A2B9-E1CF-461D-A782-C30544BF0923}"/>
+    <hyperlink ref="F21" r:id="rId29" xr:uid="{B468A673-EFEC-46BC-A69C-96CF4D2D712A}"/>
+    <hyperlink ref="F19" r:id="rId30" xr:uid="{FB317C12-05A6-4063-A089-5419D4155AB9}"/>
+    <hyperlink ref="F18" r:id="rId31" xr:uid="{02798BC4-BD89-4722-A553-0D5C45CB5CF7}"/>
     <hyperlink ref="F14" r:id="rId32" xr:uid="{40C0503C-5441-4038-A451-92486C2AF138}"/>
     <hyperlink ref="F12" r:id="rId33" xr:uid="{216E1449-83F2-4387-A647-5A02EEF07B88}"/>
     <hyperlink ref="F11" r:id="rId34" xr:uid="{DB9ED449-F6AA-4629-B203-3A20FD4624A1}"/>
     <hyperlink ref="G11" r:id="rId35" xr:uid="{F55C6C1C-5FC4-4610-B5DF-585AF636320E}"/>
-    <hyperlink ref="C31" r:id="rId36" location="overview" xr:uid="{054AA420-1148-4866-82D5-1D6B099AB693}"/>
-    <hyperlink ref="C32" r:id="rId37" location="overview" xr:uid="{AF243412-CC8F-4E83-8975-9C23CA5606CA}"/>
-    <hyperlink ref="F32" r:id="rId38" xr:uid="{7D0D3E7F-275E-4C02-8654-D8A51ACE0D7B}"/>
-    <hyperlink ref="C33" r:id="rId39" location="overview" xr:uid="{5E84AA01-78E6-45F0-9C3F-B867C30AA88C}"/>
-    <hyperlink ref="C34" r:id="rId40" location="overview" xr:uid="{AB7A6C5F-BE79-4224-AE3E-B5AA4C8EF700}"/>
-    <hyperlink ref="C35" r:id="rId41" location="overview" xr:uid="{D6E12250-84F8-49DB-B5AE-5B6EA45F99A9}"/>
-    <hyperlink ref="C36" r:id="rId42" location="overview" xr:uid="{1D56FD89-C896-4F01-9477-8B8D8E86F16B}"/>
-    <hyperlink ref="C37" r:id="rId43" location="overview" xr:uid="{F7857DD0-0BD5-4D64-8D1D-5DCFC3BB84F3}"/>
-    <hyperlink ref="C38" r:id="rId44" location="overview" xr:uid="{F316692B-6B07-4FD3-A39C-E4A9D9CE78E1}"/>
-    <hyperlink ref="C39" r:id="rId45" location="overview" xr:uid="{CD090612-CB47-4D18-90F9-57AF34895F78}"/>
-    <hyperlink ref="C40" r:id="rId46" location="overview" xr:uid="{98AA60D5-468B-4AC6-8AAA-B0C70C3E9998}"/>
-    <hyperlink ref="C41" r:id="rId47" location="overview" xr:uid="{A31464A6-B15D-4273-9748-074CAA615BF7}"/>
-    <hyperlink ref="C42" r:id="rId48" location="overview" display="Deep Q-Learning Implementation - Step 9" xr:uid="{FF66D3C4-6621-419A-B266-59BCAC854510}"/>
-    <hyperlink ref="C43" r:id="rId49" location="overview" xr:uid="{F19034EF-664E-4A75-939B-81508D6FE091}"/>
-    <hyperlink ref="C44" r:id="rId50" location="overview" display="Deep Q-Learning Implementation - Step 11" xr:uid="{654D6044-A6FE-4233-B814-28951486CABB}"/>
-    <hyperlink ref="C45" r:id="rId51" location="overview" display="Deep Q-Learning Implementation - Step 12" xr:uid="{35396DC7-1F7F-48D2-AEFB-B0E24A4F7BB7}"/>
-    <hyperlink ref="C46" r:id="rId52" location="overview" xr:uid="{B9740AB4-693F-4AAD-8B9F-69A8599B8777}"/>
-    <hyperlink ref="C47" r:id="rId53" location="overview" xr:uid="{53D58B74-E7F8-45F0-8DD9-E7F367863A75}"/>
-    <hyperlink ref="C48" r:id="rId54" location="overview" xr:uid="{EA2F38AD-A0F7-4D69-BD50-831367D43AAC}"/>
-    <hyperlink ref="C49" r:id="rId55" location="overview" xr:uid="{341DDCCC-9C13-4B14-87CB-CE6983B19D31}"/>
-    <hyperlink ref="F33" r:id="rId56" xr:uid="{BB716CFB-861E-40B4-976C-824CCADCFFD2}"/>
-    <hyperlink ref="C50" r:id="rId57" location="overview" xr:uid="{B0D65E21-8C03-4EFF-8D75-60FE4F9CA0E5}"/>
-    <hyperlink ref="C51" r:id="rId58" location="overview" xr:uid="{C42A596F-5887-4C15-8282-36DF5BCE842B}"/>
-    <hyperlink ref="C52" r:id="rId59" location="overview" display="Deep Q-Learning Implementation - Step 19" xr:uid="{7BE82259-1DAA-4A27-963E-66A8C9EB8B12}"/>
-    <hyperlink ref="C53" r:id="rId60" location="overview" xr:uid="{D280FBED-BED6-4418-BECF-81C813404524}"/>
+    <hyperlink ref="C32" r:id="rId36" location="overview" xr:uid="{054AA420-1148-4866-82D5-1D6B099AB693}"/>
+    <hyperlink ref="C33" r:id="rId37" location="overview" xr:uid="{AF243412-CC8F-4E83-8975-9C23CA5606CA}"/>
+    <hyperlink ref="F33" r:id="rId38" xr:uid="{7D0D3E7F-275E-4C02-8654-D8A51ACE0D7B}"/>
+    <hyperlink ref="C34" r:id="rId39" location="overview" xr:uid="{5E84AA01-78E6-45F0-9C3F-B867C30AA88C}"/>
+    <hyperlink ref="C35" r:id="rId40" location="overview" xr:uid="{AB7A6C5F-BE79-4224-AE3E-B5AA4C8EF700}"/>
+    <hyperlink ref="C36" r:id="rId41" location="overview" xr:uid="{D6E12250-84F8-49DB-B5AE-5B6EA45F99A9}"/>
+    <hyperlink ref="C37" r:id="rId42" location="overview" xr:uid="{1D56FD89-C896-4F01-9477-8B8D8E86F16B}"/>
+    <hyperlink ref="C38" r:id="rId43" location="overview" xr:uid="{F7857DD0-0BD5-4D64-8D1D-5DCFC3BB84F3}"/>
+    <hyperlink ref="C39" r:id="rId44" location="overview" xr:uid="{F316692B-6B07-4FD3-A39C-E4A9D9CE78E1}"/>
+    <hyperlink ref="C40" r:id="rId45" location="overview" xr:uid="{CD090612-CB47-4D18-90F9-57AF34895F78}"/>
+    <hyperlink ref="C41" r:id="rId46" location="overview" xr:uid="{98AA60D5-468B-4AC6-8AAA-B0C70C3E9998}"/>
+    <hyperlink ref="C42" r:id="rId47" location="overview" xr:uid="{A31464A6-B15D-4273-9748-074CAA615BF7}"/>
+    <hyperlink ref="C43" r:id="rId48" location="overview" display="Deep Q-Learning Implementation - Step 9" xr:uid="{FF66D3C4-6621-419A-B266-59BCAC854510}"/>
+    <hyperlink ref="C44" r:id="rId49" location="overview" xr:uid="{F19034EF-664E-4A75-939B-81508D6FE091}"/>
+    <hyperlink ref="C45" r:id="rId50" location="overview" display="Deep Q-Learning Implementation - Step 11" xr:uid="{654D6044-A6FE-4233-B814-28951486CABB}"/>
+    <hyperlink ref="C46" r:id="rId51" location="overview" display="Deep Q-Learning Implementation - Step 12" xr:uid="{35396DC7-1F7F-48D2-AEFB-B0E24A4F7BB7}"/>
+    <hyperlink ref="C47" r:id="rId52" location="overview" xr:uid="{B9740AB4-693F-4AAD-8B9F-69A8599B8777}"/>
+    <hyperlink ref="C48" r:id="rId53" location="overview" xr:uid="{53D58B74-E7F8-45F0-8DD9-E7F367863A75}"/>
+    <hyperlink ref="C49" r:id="rId54" location="overview" xr:uid="{EA2F38AD-A0F7-4D69-BD50-831367D43AAC}"/>
+    <hyperlink ref="C50" r:id="rId55" location="overview" xr:uid="{341DDCCC-9C13-4B14-87CB-CE6983B19D31}"/>
+    <hyperlink ref="F34" r:id="rId56" xr:uid="{BB716CFB-861E-40B4-976C-824CCADCFFD2}"/>
+    <hyperlink ref="C51" r:id="rId57" location="overview" xr:uid="{B0D65E21-8C03-4EFF-8D75-60FE4F9CA0E5}"/>
+    <hyperlink ref="C52" r:id="rId58" location="overview" xr:uid="{C42A596F-5887-4C15-8282-36DF5BCE842B}"/>
+    <hyperlink ref="C53" r:id="rId59" location="overview" display="Deep Q-Learning Implementation - Step 19" xr:uid="{7BE82259-1DAA-4A27-963E-66A8C9EB8B12}"/>
+    <hyperlink ref="C54" r:id="rId60" location="overview" xr:uid="{D280FBED-BED6-4418-BECF-81C813404524}"/>
+    <hyperlink ref="C15" r:id="rId61" location="overview" xr:uid="{90631E70-2CF5-46F6-97D4-A86AA011DEB6}"/>
+    <hyperlink ref="C55" r:id="rId62" location="overview" xr:uid="{C9297B2B-843D-4B7C-B561-936451BCE888}"/>
+    <hyperlink ref="C56" r:id="rId63" location="overview" xr:uid="{D93FB84C-D363-450E-8374-7F4DB64376BE}"/>
+    <hyperlink ref="C57" r:id="rId64" location="overview" xr:uid="{CB63D440-C86D-4B1B-A218-E32737BFFE83}"/>
+    <hyperlink ref="C58" r:id="rId65" location="overview" xr:uid="{5640674B-948C-45E1-A151-E7BD0CD162D4}"/>
+    <hyperlink ref="C59" r:id="rId66" location="overview" xr:uid="{315C40E4-CDE3-440E-BACC-5FB5BC170788}"/>
+    <hyperlink ref="C60" r:id="rId67" location="overview" xr:uid="{B0FFB7DE-5C13-4D63-A3AA-8AB5FED2380E}"/>
+    <hyperlink ref="C61" r:id="rId68" location="overview" xr:uid="{E48CC1BF-C578-4CD2-9E00-49F5EFE7CC14}"/>
+    <hyperlink ref="C62" r:id="rId69" location="overview" xr:uid="{9D545758-C6A2-4C6F-8D30-B6AA72434538}"/>
+    <hyperlink ref="C63" r:id="rId70" location="overview" xr:uid="{8C79658C-FAEA-43B3-BF2A-1D86DC913622}"/>
+    <hyperlink ref="C64" r:id="rId71" location="overview" xr:uid="{EE2A41B7-96FF-41F0-AFCA-CE2C31DBBFC6}"/>
+    <hyperlink ref="C65" r:id="rId72" location="overview" xr:uid="{C3D983C7-6739-422F-A3FC-0B9E9048A76C}"/>
+    <hyperlink ref="C66" r:id="rId73" location="overview" xr:uid="{40A16546-8C00-4AE7-A41B-846585A6C3D5}"/>
+    <hyperlink ref="C67" r:id="rId74" location="overview" xr:uid="{508250E3-8486-472B-974E-0897C30350A2}"/>
+    <hyperlink ref="C68" r:id="rId75" location="overview" xr:uid="{4AF0D63E-E7C8-47BC-8664-807D3E9F0026}"/>
+    <hyperlink ref="C69" r:id="rId76" location="overview" xr:uid="{E8F764BC-132B-4363-BE2C-F965659A190E}"/>
+    <hyperlink ref="C70" r:id="rId77" location="overview" xr:uid="{45FD6709-E9E1-4406-9084-8B5269BA20EE}"/>
+    <hyperlink ref="C71" r:id="rId78" location="overview" xr:uid="{1AF74E28-15DB-4FEA-9D86-37E2AD934F52}"/>
+    <hyperlink ref="C72" r:id="rId79" location="overview" xr:uid="{BD432AF8-DC0B-4A24-B8FC-1421EE7EEBA8}"/>
+    <hyperlink ref="C73" r:id="rId80" location="overview" xr:uid="{005EF413-E9C1-430C-9E6C-7AE508A82FF6}"/>
+    <hyperlink ref="C74" r:id="rId81" location="overview" xr:uid="{BA781DBA-C2AA-4CEF-ACC5-FBCBCAA38BC0}"/>
+    <hyperlink ref="C75" r:id="rId82" location="overview" xr:uid="{9A738FB8-7B3F-4BB6-8F1D-CA680A47CF94}"/>
+    <hyperlink ref="C76" r:id="rId83" location="overview" xr:uid="{9176D9B8-233C-4DBE-B8B2-C1FBD85C0765}"/>
+    <hyperlink ref="C77" r:id="rId84" location="overview" xr:uid="{861C66BA-2EDB-47AA-9D7E-8C25B14BE5A4}"/>
+    <hyperlink ref="C78" r:id="rId85" location="overview" xr:uid="{2ABEF9F0-BF08-4ED7-BE63-8B810E8A7E76}"/>
+    <hyperlink ref="C79" r:id="rId86" location="overview" xr:uid="{B47983EE-268E-4530-AAD3-F9AFA451E511}"/>
+    <hyperlink ref="C80" r:id="rId87" location="overview" xr:uid="{CD377EE3-BAEA-4DDF-8310-0F7ABEEF3BCE}"/>
+    <hyperlink ref="C81" r:id="rId88" location="overview" xr:uid="{328CD668-3CF4-4C24-AE20-D46C7A1230E7}"/>
+    <hyperlink ref="C82" r:id="rId89" location="overview" xr:uid="{6BFAE27B-500D-45CA-908F-72B58310A011}"/>
+    <hyperlink ref="C83" r:id="rId90" location="overview" xr:uid="{A2BAFC3F-E8DD-44B4-B827-850DC7136A34}"/>
+    <hyperlink ref="C84" r:id="rId91" location="overview" xr:uid="{828722DC-30CF-4701-BFE2-C14DB8DD070F}"/>
+    <hyperlink ref="C85" r:id="rId92" location="overview" xr:uid="{81A93FC4-D475-43AA-9692-2EE2B2315B5E}"/>
+    <hyperlink ref="C86" r:id="rId93" location="overview" xr:uid="{F9BC7E32-F714-4189-A178-644A7022D98C}"/>
+    <hyperlink ref="C87" r:id="rId94" location="overview" xr:uid="{FC426077-2B63-474C-AA6B-90F7911274CC}"/>
+    <hyperlink ref="C88" r:id="rId95" location="overview" xr:uid="{D103C3DC-A787-44A1-AF9C-A1D353FAA03C}"/>
+    <hyperlink ref="C89" r:id="rId96" location="overview" xr:uid="{6D206072-2186-466D-8099-CBCA19C5955E}"/>
+    <hyperlink ref="C90" r:id="rId97" location="overview" xr:uid="{4237D9A7-74A5-40B0-85B3-D8465C07A7C5}"/>
+    <hyperlink ref="C91" r:id="rId98" location="overview" xr:uid="{5CAE130D-EA01-4C29-A415-2F65584A7A75}"/>
+    <hyperlink ref="C92" r:id="rId99" location="overview" xr:uid="{FBA9EFF7-A7FA-4A04-BDA8-471658218F09}"/>
+    <hyperlink ref="C93" r:id="rId100" location="overview" xr:uid="{A65F6A1C-2A17-4391-BEC3-E76170069A0D}"/>
+    <hyperlink ref="C94" r:id="rId101" location="overview" xr:uid="{AAD8A22B-B046-47AF-8625-4DAF50CB0049}"/>
+    <hyperlink ref="C95" r:id="rId102" location="overview" xr:uid="{E587EFE0-DF3C-4B7E-899D-40452C5C0A96}"/>
+    <hyperlink ref="C96" r:id="rId103" location="overview" xr:uid="{D209247D-C45F-44D8-9A04-7CB5486141E2}"/>
+    <hyperlink ref="C97" r:id="rId104" location="overview" xr:uid="{3E17893E-5ED5-4A7A-87A8-379C5B68B860}"/>
+    <hyperlink ref="C98" r:id="rId105" location="overview" xr:uid="{435807EE-B39A-4AB9-938D-975C27FE1E66}"/>
+    <hyperlink ref="F98" r:id="rId106" xr:uid="{37A9567E-8B1A-4253-964A-0DD6C7569C6C}"/>
+    <hyperlink ref="C99" r:id="rId107" location="overview" xr:uid="{0AADDD63-07A2-4BE8-A088-367A86D0D6D3}"/>
+    <hyperlink ref="C100" r:id="rId108" location="overview" xr:uid="{E06D96E4-71C8-4EFA-8D82-572EF7EA609B}"/>
+    <hyperlink ref="C101" r:id="rId109" location="overview" xr:uid="{069A1F73-9413-4616-9D04-639BB01C0CEF}"/>
+    <hyperlink ref="C102" r:id="rId110" location="overview" xr:uid="{27C2FB00-0D4C-4A74-9E09-57D70FBD8116}"/>
+    <hyperlink ref="C103" r:id="rId111" location="overview" xr:uid="{E08C435C-35CE-4C7F-A654-0644B315620A}"/>
+    <hyperlink ref="C104" r:id="rId112" location="overview" xr:uid="{96EAB609-F608-4CC1-91AB-7A77198F5FAB}"/>
+    <hyperlink ref="C105" r:id="rId113" location="overview" xr:uid="{AFDBBBAD-4D65-4820-A327-C23B6F5D8F24}"/>
+    <hyperlink ref="C106" r:id="rId114" location="overview" xr:uid="{366371A9-315E-4F2D-AD74-DB2C123A4521}"/>
+    <hyperlink ref="C107" r:id="rId115" location="overview" xr:uid="{9F5F76C6-2A98-4AEB-8FCF-F97AF8CC5D2A}"/>
+    <hyperlink ref="C108" r:id="rId116" location="overview" xr:uid="{B809FB1F-B52E-4D90-BC5E-9039DF345032}"/>
+    <hyperlink ref="C109" r:id="rId117" location="overview" xr:uid="{282EE31E-F64B-4244-A683-5F2BB9D9FEA6}"/>
+    <hyperlink ref="F109" r:id="rId118" xr:uid="{56B18435-FAA5-49B3-8032-38FB8D77C76C}"/>
+    <hyperlink ref="G109" r:id="rId119" xr:uid="{61311D30-55C2-4C57-8D99-EFF44EB94426}"/>
+    <hyperlink ref="H109" r:id="rId120" xr:uid="{148048C1-EB0E-400F-AAD3-1B0632CDA44E}"/>
+    <hyperlink ref="I109" r:id="rId121" location="transformers.AutoModelForCausalLM.from_pretrained" xr:uid="{A10EA17D-61E7-4ECB-8CAB-1A0347605B95}"/>
+    <hyperlink ref="J109" r:id="rId122" location="transformers.BitsAndBytesConfig" xr:uid="{DDBC008B-F785-4991-9074-CBA22E32F19B}"/>
+    <hyperlink ref="K109" r:id="rId123" location="transformers.AutoTokenizer.from_pretrained" xr:uid="{B016FDD9-A140-4581-8FEF-17E50E39C156}"/>
+    <hyperlink ref="L109" r:id="rId124" location="transformers.TrainingArguments" xr:uid="{9DF615B8-688B-420F-A540-0564368444A9}"/>
+    <hyperlink ref="M109" r:id="rId125" location="trl.SFTTrainer" xr:uid="{B94C1965-31DF-4FA1-B742-6537E8E20187}"/>
+    <hyperlink ref="N109" r:id="rId126" location="peft.LoraConfig" xr:uid="{FC6A1156-9923-4269-95A2-A53F6C47164A}"/>
+    <hyperlink ref="O109" r:id="rId127" location="pipeline" xr:uid="{CEB1CE9A-3E0D-4A4E-870B-567E865EDEC0}"/>
+    <hyperlink ref="C110" r:id="rId128" location="overview" xr:uid="{80F90E06-177A-42EE-B1F6-9CAFCF31898A}"/>
+    <hyperlink ref="C111" r:id="rId129" location="overview" xr:uid="{764C358A-A547-4D98-BDCE-F9C8B017AE13}"/>
+    <hyperlink ref="C112" r:id="rId130" location="overview" xr:uid="{BE077442-E1E3-4070-920D-C7772C1A8005}"/>
+    <hyperlink ref="C113" r:id="rId131" location="overview" xr:uid="{6A661575-EC8E-4219-82FA-92C974F65BA7}"/>
+    <hyperlink ref="C114" r:id="rId132" location="overview" xr:uid="{D4F318E7-39CF-4245-9F61-9CA698B667F7}"/>
+    <hyperlink ref="C115" r:id="rId133" location="overview" xr:uid="{ACA593DF-866D-43FE-8226-DFC58B2FF816}"/>
+    <hyperlink ref="C116" r:id="rId134" location="overview" xr:uid="{652B95CF-7AB6-4F2D-B939-CA6E947ABC22}"/>
+    <hyperlink ref="C117" r:id="rId135" location="overview" xr:uid="{FF24682D-1910-4159-A9EA-13CE7C05F8E0}"/>
+    <hyperlink ref="F117" r:id="rId136" xr:uid="{1310F619-4D74-429C-B3B9-54D256D7AF77}"/>
+    <hyperlink ref="C118" r:id="rId137" location="overview" xr:uid="{3C4659C7-0914-4B6B-BE3E-31F9EC95E63A}"/>
+    <hyperlink ref="C119" r:id="rId138" location="overview" xr:uid="{C29F4F8D-8677-4E03-8B46-6C14DC928901}"/>
+    <hyperlink ref="C120" r:id="rId139" location="overview" xr:uid="{31BEB512-629B-48BF-8343-26938FDEC0F7}"/>
+    <hyperlink ref="C121" r:id="rId140" location="overview" xr:uid="{2629C7A6-DB17-4963-8C8E-1688BCB121BC}"/>
+    <hyperlink ref="C122" r:id="rId141" location="overview" xr:uid="{F4AD5106-3772-48FA-9518-C9A6A6AF223D}"/>
+    <hyperlink ref="C123" r:id="rId142" location="overview" xr:uid="{A29EA896-7239-470B-A5C9-EC183A715C23}"/>
+    <hyperlink ref="C124" r:id="rId143" location="overview" xr:uid="{9019A34D-7584-44A3-86FD-319B3D9CC2A0}"/>
+    <hyperlink ref="C125" r:id="rId144" location="overview" xr:uid="{B85B228C-3023-41E1-B66C-A7E56E53CCEE}"/>
+    <hyperlink ref="C126" r:id="rId145" location="overview" xr:uid="{DF21C522-7821-4BD8-80FC-A9ACA8380BB8}"/>
+    <hyperlink ref="C127" r:id="rId146" location="overview" xr:uid="{5D21A194-F2B8-421B-86FA-1D532EF032CC}"/>
+    <hyperlink ref="C128" r:id="rId147" location="overview" xr:uid="{0384FAF7-86A7-40C2-A37D-B94311DF154B}"/>
+    <hyperlink ref="C129" r:id="rId148" location="overview" xr:uid="{100EB6C0-E861-4F58-860F-946291233A79}"/>
+    <hyperlink ref="C130" r:id="rId149" location="overview" xr:uid="{B9E18C3B-6D55-4A20-B376-30BEDE5CBD9C}"/>
+    <hyperlink ref="C131" r:id="rId150" location="overview" xr:uid="{9B37F9F5-DD71-43A2-A6C9-54D6F0E8449F}"/>
+    <hyperlink ref="C132" r:id="rId151" location="overview" xr:uid="{B6845E6D-E94D-4405-9639-EE151CED069B}"/>
+    <hyperlink ref="C133" r:id="rId152" location="overview" xr:uid="{18CA1CBB-4519-42FB-88F4-02803C087A6E}"/>
+    <hyperlink ref="C134" r:id="rId153" location="overview" xr:uid="{5E436E2B-9539-4EF1-B826-405BC441C800}"/>
+    <hyperlink ref="C135" r:id="rId154" location="overview" xr:uid="{3D28EA15-68E2-4F57-8717-E2D4F8EACDF1}"/>
+    <hyperlink ref="C136" r:id="rId155" location="overview" xr:uid="{91791884-AFAA-4E0F-9BE0-4B49240E6F1E}"/>
+    <hyperlink ref="C137" r:id="rId156" location="overview" xr:uid="{202D3008-57B1-429A-A877-5D731BAB8D4C}"/>
+    <hyperlink ref="F137" r:id="rId157" xr:uid="{C1917B92-AC71-4B53-9A69-51330A68CD11}"/>
+    <hyperlink ref="C138" r:id="rId158" location="overview" xr:uid="{F7439121-21C6-490F-A4BD-0A1E62E08E1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
-  <legacyDrawing r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId159"/>
+  <legacyDrawing r:id="rId160"/>
 </worksheet>
 </file>